--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ngf-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Ngf</t>
+  </si>
+  <si>
+    <t>Ntrk1</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ngf</t>
-  </si>
-  <si>
-    <t>Ntrk1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H2">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I2">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J2">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.153988</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N2">
-        <v>0.461964</v>
+        <v>0.002755</v>
       </c>
       <c r="O2">
-        <v>0.7159318881850409</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P2">
-        <v>0.7908135229379472</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q2">
-        <v>0.146655553404</v>
+        <v>0.001661079496666667</v>
       </c>
       <c r="R2">
-        <v>1.319899980636</v>
+        <v>0.01494971547</v>
       </c>
       <c r="S2">
-        <v>0.03306624877750484</v>
+        <v>0.001900211435652796</v>
       </c>
       <c r="T2">
-        <v>0.05134917894383177</v>
+        <v>0.002494748330457521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +590,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9523829999999999</v>
+        <v>1.808798</v>
       </c>
       <c r="H3">
-        <v>2.857149</v>
+        <v>5.426394</v>
       </c>
       <c r="I3">
-        <v>0.04618630532204829</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J3">
-        <v>0.06493209518353291</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.0610995</v>
+        <v>0.153988</v>
       </c>
       <c r="N3">
-        <v>0.122199</v>
+        <v>0.461964</v>
       </c>
       <c r="O3">
-        <v>0.2840681118149591</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P3">
-        <v>0.2091864770620529</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q3">
-        <v>0.0581901251085</v>
+        <v>0.278533186424</v>
       </c>
       <c r="R3">
-        <v>0.349140750651</v>
+        <v>2.506798677816</v>
       </c>
       <c r="S3">
-        <v>0.01312005654454345</v>
+        <v>0.3186313160290048</v>
       </c>
       <c r="T3">
-        <v>0.01358291623970114</v>
+        <v>0.4183244710459086</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -664,40 +667,40 @@
         <v>5.426394</v>
       </c>
       <c r="I4">
-        <v>0.08771859293363103</v>
+        <v>0.36666838522954</v>
       </c>
       <c r="J4">
-        <v>0.1233212309583266</v>
+        <v>0.4612006375427627</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.153988</v>
+        <v>0.022297</v>
       </c>
       <c r="N4">
-        <v>0.461964</v>
+        <v>0.044594</v>
       </c>
       <c r="O4">
-        <v>0.7159318881850409</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P4">
-        <v>0.7908135229379472</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q4">
-        <v>0.278533186424</v>
+        <v>0.040330769006</v>
       </c>
       <c r="R4">
-        <v>2.506798677816</v>
+        <v>0.241984614036</v>
       </c>
       <c r="S4">
-        <v>0.06280053786790946</v>
+        <v>0.04613685776488246</v>
       </c>
       <c r="T4">
-        <v>0.09752409710719849</v>
+        <v>0.04038141816639662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +714,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.808798</v>
+        <v>3.033388</v>
       </c>
       <c r="H5">
-        <v>5.426394</v>
+        <v>6.066776</v>
       </c>
       <c r="I5">
-        <v>0.08771859293363103</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J5">
-        <v>0.1233212309583266</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.0610995</v>
+        <v>0.0009183333333333334</v>
       </c>
       <c r="N5">
-        <v>0.122199</v>
+        <v>0.002755</v>
       </c>
       <c r="O5">
-        <v>0.2840681118149591</v>
+        <v>0.005182370534790543</v>
       </c>
       <c r="P5">
-        <v>0.2091864770620529</v>
+        <v>0.005409247358696911</v>
       </c>
       <c r="Q5">
-        <v>0.110516653401</v>
+        <v>0.002785661313333333</v>
       </c>
       <c r="R5">
-        <v>0.6630999204060001</v>
+        <v>0.01671396788</v>
       </c>
       <c r="S5">
-        <v>0.02491805506572158</v>
+        <v>0.003186690037456899</v>
       </c>
       <c r="T5">
-        <v>0.02579713385112812</v>
+        <v>0.002789159669802775</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +776,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -782,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.859282</v>
+        <v>3.033388</v>
       </c>
       <c r="H6">
-        <v>35.718564</v>
+        <v>6.066776</v>
       </c>
       <c r="I6">
-        <v>0.8660951017443207</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J6">
-        <v>0.8117466738581405</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,27 +809,27 @@
         <v>0.461964</v>
       </c>
       <c r="O6">
-        <v>0.7159318881850409</v>
+        <v>0.8689904253117887</v>
       </c>
       <c r="P6">
-        <v>0.7908135229379472</v>
+        <v>0.9070335923096405</v>
       </c>
       <c r="Q6">
-        <v>2.750115116616</v>
+        <v>0.4671053513439999</v>
       </c>
       <c r="R6">
-        <v>16.500690699696</v>
+        <v>2.802632108064</v>
       </c>
       <c r="S6">
-        <v>0.6200651015396267</v>
+        <v>0.5343506629632444</v>
       </c>
       <c r="T6">
-        <v>0.6419402468869169</v>
+        <v>0.4676919628677927</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +838,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -844,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.859282</v>
+        <v>3.033388</v>
       </c>
       <c r="H7">
-        <v>35.718564</v>
+        <v>6.066776</v>
       </c>
       <c r="I7">
-        <v>0.8660951017443207</v>
+        <v>0.6149097244328354</v>
       </c>
       <c r="J7">
-        <v>0.8117466738581405</v>
+        <v>0.5156280504196953</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,214 @@
         <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.0610995</v>
+        <v>0.022297</v>
       </c>
       <c r="N7">
-        <v>0.122199</v>
+        <v>0.044594</v>
       </c>
       <c r="O7">
-        <v>0.2840681118149591</v>
+        <v>0.1258272041534207</v>
       </c>
       <c r="P7">
-        <v>0.2091864770620529</v>
+        <v>0.08755716033166246</v>
       </c>
       <c r="Q7">
-        <v>1.091193200559</v>
+        <v>0.067635452236</v>
       </c>
       <c r="R7">
-        <v>4.364772802236</v>
+        <v>0.270541808944</v>
       </c>
       <c r="S7">
-        <v>0.246030000204694</v>
+        <v>0.07737237143213407</v>
       </c>
       <c r="T7">
-        <v>0.1698064269712236</v>
+        <v>0.04514692788209979</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.09087633333333334</v>
+      </c>
+      <c r="H8">
+        <v>0.272629</v>
+      </c>
+      <c r="I8">
+        <v>0.01842189033762463</v>
+      </c>
+      <c r="J8">
+        <v>0.02317131203754203</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.0009183333333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.002755</v>
+      </c>
+      <c r="O8">
+        <v>0.005182370534790543</v>
+      </c>
+      <c r="P8">
+        <v>0.005409247358696911</v>
+      </c>
+      <c r="Q8">
+        <v>8.345476611111112E-05</v>
+      </c>
+      <c r="R8">
+        <v>0.0007510928950000001</v>
+      </c>
+      <c r="S8">
+        <v>9.546906168084849E-05</v>
+      </c>
+      <c r="T8">
+        <v>0.0001253393584366162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.09087633333333334</v>
+      </c>
+      <c r="H9">
+        <v>0.272629</v>
+      </c>
+      <c r="I9">
+        <v>0.01842189033762463</v>
+      </c>
+      <c r="J9">
+        <v>0.02317131203754203</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.153988</v>
+      </c>
+      <c r="N9">
+        <v>0.461964</v>
+      </c>
+      <c r="O9">
+        <v>0.8689904253117887</v>
+      </c>
+      <c r="P9">
+        <v>0.9070335923096405</v>
+      </c>
+      <c r="Q9">
+        <v>0.01399386481733333</v>
+      </c>
+      <c r="R9">
+        <v>0.125944783356</v>
+      </c>
+      <c r="S9">
+        <v>0.01600844631953956</v>
+      </c>
+      <c r="T9">
+        <v>0.02101715839593937</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.09087633333333334</v>
+      </c>
+      <c r="H10">
+        <v>0.272629</v>
+      </c>
+      <c r="I10">
+        <v>0.01842189033762463</v>
+      </c>
+      <c r="J10">
+        <v>0.02317131203754203</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.5</v>
+      </c>
+      <c r="M10">
+        <v>0.022297</v>
+      </c>
+      <c r="N10">
+        <v>0.044594</v>
+      </c>
+      <c r="O10">
+        <v>0.1258272041534207</v>
+      </c>
+      <c r="P10">
+        <v>0.08755716033166246</v>
+      </c>
+      <c r="Q10">
+        <v>0.002026269604333334</v>
+      </c>
+      <c r="R10">
+        <v>0.012157617626</v>
+      </c>
+      <c r="S10">
+        <v>0.002317974956404223</v>
+      </c>
+      <c r="T10">
+        <v>0.002028814283166048</v>
       </c>
     </row>
   </sheetData>
